--- a/src/LoginTestData.xlsx
+++ b/src/LoginTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>54252gohangoku</t>
-  </si>
-  <si>
-    <t>concept4ravi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -153,17 +150,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,18 +178,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="3006ravikumar@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="concept4ravi@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
